--- a/Excel_Files/Stats_Populations/2_cm/686_nm_v.xlsx
+++ b/Excel_Files/Stats_Populations/2_cm/686_nm_v.xlsx
@@ -459,28 +459,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0.0002309392409121635</v>
+        <v>0.000907382771855501</v>
       </c>
       <c r="D2">
-        <v>0.0004249947616392211</v>
+        <v>0.001118507980508804</v>
       </c>
       <c r="E2">
-        <v>0.0002602719817349507</v>
+        <v>0.0008967030741981925</v>
       </c>
       <c r="F2">
-        <v>0.0002358049628205837</v>
+        <v>0.0009051254486478695</v>
       </c>
       <c r="G2">
-        <v>0.000130223913581799</v>
+        <v>0.0006933791349952987</v>
       </c>
       <c r="H2">
-        <v>0.0004249947616392211</v>
+        <v>0.001118507980508804</v>
       </c>
       <c r="I2">
-        <v>0.0004425956484116972</v>
+        <v>0.001369266116643929</v>
       </c>
       <c r="J2">
-        <v>0.0005810778356249612</v>
+        <v>0.001520702725643688</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -491,28 +491,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.000112332188004902</v>
+        <v>0.0006367159764865156</v>
       </c>
       <c r="D3">
-        <v>0.0003257395958916814</v>
+        <v>0.001016441387018697</v>
       </c>
       <c r="E3">
-        <v>0.0001719681546637833</v>
+        <v>0.000803384055789833</v>
       </c>
       <c r="F3">
-        <v>8.69431611658144E-05</v>
+        <v>0.0005410901602638955</v>
       </c>
       <c r="G3">
-        <v>8.143458965339465E-05</v>
+        <v>0.0005145402609233017</v>
       </c>
       <c r="H3">
-        <v>0.0001811705969923793</v>
+        <v>0.0008008995246136089</v>
       </c>
       <c r="I3">
-        <v>0.0001882813002386454</v>
+        <v>0.0008482123362882682</v>
       </c>
       <c r="J3">
-        <v>0.0001032485023542453</v>
+        <v>0.0005928861911578593</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>5.903785054115279E-05</v>
+        <v>0.0004269444263612296</v>
       </c>
       <c r="D4">
-        <v>0.0001432090079832966</v>
+        <v>0.0006869581841509045</v>
       </c>
       <c r="E4">
-        <v>0.0001096235147044383</v>
+        <v>0.0006035239842875144</v>
       </c>
       <c r="F4">
-        <v>3.040990576170122E-05</v>
+        <v>0.0002791791734468329</v>
       </c>
       <c r="G4">
-        <v>2.641847459836649E-05</v>
+        <v>0.000253827402282004</v>
       </c>
       <c r="H4">
-        <v>7.726825563219386E-05</v>
+        <v>0.0004996973416377914</v>
       </c>
       <c r="I4">
-        <v>0.0001226463532670197</v>
+        <v>0.0006727002721351508</v>
       </c>
       <c r="J4">
-        <v>3.281535333539027E-05</v>
+        <v>0.0002867239899545372</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -555,28 +555,28 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>2.300401698143738E-06</v>
+        <v>5.02709433834641E-05</v>
       </c>
       <c r="D5">
-        <v>3.268586161741076E-06</v>
+        <v>6.314788011002137E-05</v>
       </c>
       <c r="E5">
-        <v>2.372453773921665E-06</v>
+        <v>5.068544636942387E-05</v>
       </c>
       <c r="F5">
-        <v>1.007874840847235E-06</v>
+        <v>2.955168562281695E-05</v>
       </c>
       <c r="G5">
-        <v>5.681581091470229E-07</v>
+        <v>2.00082801306676E-05</v>
       </c>
       <c r="H5">
-        <v>1.218561802960971E-06</v>
+        <v>3.364365838727301E-05</v>
       </c>
       <c r="I5">
-        <v>2.120717700861596E-06</v>
+        <v>4.719409492291164E-05</v>
       </c>
       <c r="J5">
-        <v>2.081342330907192E-06</v>
+        <v>4.488730197718775E-05</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -587,28 +587,28 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>1.317136358655305E-06</v>
+        <v>3.449420636584971E-05</v>
       </c>
       <c r="D6">
-        <v>1.077228509407864E-06</v>
+        <v>3.173710900186246E-05</v>
       </c>
       <c r="E6">
-        <v>9.416915492764939E-07</v>
+        <v>2.764978071913346E-05</v>
       </c>
       <c r="F6">
-        <v>3.624942224305535E-07</v>
+        <v>1.5030141153731E-05</v>
       </c>
       <c r="G6">
-        <v>2.179115449620833E-07</v>
+        <v>1.069856013510036E-05</v>
       </c>
       <c r="H6">
-        <v>3.723344540678026E-07</v>
+        <v>1.554738007913735E-05</v>
       </c>
       <c r="I6">
-        <v>1.273217402207721E-06</v>
+        <v>3.311386181257559E-05</v>
       </c>
       <c r="J6">
-        <v>1.184913064162967E-06</v>
+        <v>3.111313460839684E-05</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,28 +619,28 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>6.766662369141383E-07</v>
+        <v>2.221933145213102E-05</v>
       </c>
       <c r="D7">
-        <v>3.726682168772675E-07</v>
+        <v>1.536892905415827E-05</v>
       </c>
       <c r="E7">
-        <v>2.576236820294142E-07</v>
+        <v>1.180971460460649E-05</v>
       </c>
       <c r="F7">
-        <v>8.108217606321517E-08</v>
+        <v>5.509119135430825E-06</v>
       </c>
       <c r="G7">
-        <v>1.134125954961433E-07</v>
+        <v>7.039080142741457E-06</v>
       </c>
       <c r="H7">
-        <v>8.108217606321517E-08</v>
+        <v>5.509119135430825E-06</v>
       </c>
       <c r="I7">
-        <v>6.878298109578027E-07</v>
+        <v>2.247965318375529E-05</v>
       </c>
       <c r="J7">
-        <v>5.717432883348401E-07</v>
+        <v>1.929219622034091E-05</v>
       </c>
     </row>
   </sheetData>
